--- a/uploads/test2.xlsx
+++ b/uploads/test2.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
